--- a/NewsRec/z-others/data/original/5-社会活动公益频道光明网.xlsx
+++ b/NewsRec/z-others/data/original/5-社会活动公益频道光明网.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\推荐系统\3-数据集\新闻推荐实例数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\NewsRecSys\NewsRec\z-others\data\original\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="796">
   <si>
     <t>标题</t>
   </si>
@@ -370,9 +370,6 @@
   </si>
   <si>
     <t>前10月，全国消防队伍出动千万人次 营救十余万人</t>
-  </si>
-  <si>
-    <t>2018-11-19 15:48</t>
   </si>
   <si>
     <t>　　“安全”二字重千钧。11月起，全国消防宣传月活动启动，各地正在开展形式多样的宣传教育活动。记者从应急管理部消防救援局获悉：1—10月份，全国共接报火灾19.75万起，亡1082人，伤693人，直接财产损失25.09亿元，与去年同期相比，分别下降17.2%、1.9%、1.4%和15.9%。
@@ -1164,9 +1161,6 @@
   </si>
   <si>
     <t>联合国粮农组织：减贫，世界需要向中国学习</t>
-  </si>
-  <si>
-    <t>2018-10-25 13:43</t>
   </si>
   <si>
     <t>　　核心阅读
@@ -3703,38 +3697,6 @@
 　　“干事情只要一条路坚持走，就能成功。”马云平和妻子下定了决心，他们把家搬进沙窝里，卖牛买树苗，一步一步挺进沙丘，一棵一棵绿化沙地。18年过去了，这片沙地被20多万棵树木覆盖，野花野草分布其中，一片生机盎然。如今，马云平和妻子开始种植林下经济作物，建设生物饲料加工厂，一幅幸福美好生活的图景正在这绿意之中绘制。
 　　新华社记者 刘磊/摄
 　　来源：中国青年报[责编：钟蕾蕾]</t>
-  </si>
-  <si>
-    <t>2018-08-22 14:40</t>
-  </si>
-  <si>
-    <t>　　8月21日，腾讯公司公布了“DN.A农村支教计划”。据悉，该计划是由腾讯社会研究中心启动，通过与高校、专家和第三方机构合作，旨在提高农村地区留守儿童素养，避免网络沉迷和不良信息对未成年人群体造成侵害，让农村留守儿童学习科学、健康地上网行为。
-　　腾讯启动农村支教计划，旨在提高留守儿童网络素养
-　　由腾讯社会研究中心发布的DN.A农村支教计划，将联合高校、专家和第三方公益组织或其他教育机构，专门针对农村地区的未成年人去探索网络素养教育的不同模式。
-　　7月23日，在广东湛江雷州市官村小学，31位来自城市的特殊讲师正卖力的教当地的孩子怎么辨别网络不良信息，这群讲师最大的不过14岁，小的才10岁，跟他们的学生年龄相差无几。
-　　据悉，这是腾讯携手E成长计划，通过游戏化的“同伴教育”开展面向农村儿童的网络素养公开课，让这群孩子收获真正的“良师益友”。
-　　除此创新方式，腾讯DN.A还计划与华中师范大学合作，开发一套网络素养基础课程和效果评估体系，提供给不同公益机构和教育机构使用。后续，腾讯也将结合这套评估体系，对支教效果进行评测量化，并最终推出《农村留守儿童网络素养教育手册》。
-　　另外，负责落地的第三方公益机构或教育机构，则可以展开自由灵活的丰富探索。
-　　例如“DN.A+朋辈计划” ，即是深圳源泉朋辈服务中心将与腾讯DN.A计划合作一种形式，把“朋辈教育”与心理教育结合，将在以江西省农村地区为主的2-4所学校开发对应课程。
-　　为更深层的发现留守儿童和农村孩子网络沉迷的根本原因，帮助他们更有效的表达诉求，腾讯联合安心工作室，把他们针对青少年、家长、老师的“效能提升系列课程”应用到网络素养支教当中，帮助父母和学校与孩子建立更有效的沟通。
-　　据悉，后续腾讯DN.A计划还会在家长远程关怀、青少年自我认知和教师沟通技巧等方面给予针对性支持，让父母和学校更好地理解留守儿童群体的诉求，让父母、学校和孩子建立更加有效的沟通渠道。
-　　持续推动未成年人健康上网，腾讯一直在路上
-　　据统计，在向腾讯服务平台咨询的用户中，10%的求助者是留守儿童的父母。这些家庭普遍存在溺爱孩子，缺少陪伴，或教育方法不当，甚至有打骂孩子的情况。在腾讯公布的农村支教计划中，提到这样一个案例：今年7月，常年在外打工的胡先生向腾讯咨询平台打来求助电话：他表示由于疏于陪伴与管教，孩子存在过度游戏行为，经常与父母发生冲突。在腾讯未成年人主动服务团队的介入辅导下，家长通过调整教育方式，给予空间自由和约定游戏时间等办法，帮助孩子有效纠正了过度游戏行为，亲子关系也得到明显改善。
-　　此前，2017年2月，腾讯推出了成长守护平台——直到目前并无其他国内厂商推出类似系统功能。通过该平台，家长可以进行游戏登陆及消费的“历史查询”、“实时提醒”、“登陆时段设置”、 “一键禁玩”、“消费限额”、 “一键禁玩”等功能。17年7月，腾讯在旗下最火的游戏“王者荣耀”上推出健康游戏系统，是迄今为止最严格手游防沉迷系统，对未成年用户进行了游戏时长限制。今年6月，腾讯又推出“未成年人游戏消费提醒”的新服务，对疑似未成年人消费行为主动介入提醒，并提供客服“教育专线”服务，由50名具有教育资质的客服为矛盾突出家庭提供一对一电话辅导。
-　　这些功能与服务，涵盖了未成年保护工作事先、事中、事后三个阶段，形成了一个完整的未成年人保护体系。
-　　此外，腾讯平台的其他业务， 如腾讯手机管家、企鹅辅导和智能音箱等其他产品也在未成年健康上网领域做出了有益探索。
-　　农村留守儿童问题凸显，背后是农村社会衰落的现实
-　　根据公益机构“上学路上”发布的《2017年中国留守儿童心灵情况白皮书》关于学校行为的分析显示，67.8%的留守儿童有“学习成绩明显退步”的经历，明显高于非留守儿童。而在北大学者张丹丹的男子监狱调研中，她发现17%服刑人员曾是留守儿童。另外，据《青少年成瘾行为调研报告——基于2017/2018青少年健康行为网络问卷调查数据分析》显示，在玩游戏的时间上，留守儿童要高于非留守儿童。除了教育、犯罪和沉迷网络以外，留守儿童的心理健康问题也需格外注意，有调查显示，35%的留守儿童有自杀倾向。北京师范大学教授尚晓援说，“应高度重视留守儿童的心理健康问题。”可以说，教育、预防犯罪和心理问题已然是农村留守儿童亟待解决的现实问题。
-　　父母长年在外打工带来的关系疏离和孩子安全感的缺失，不懂如何对孩子进行远程沟通管理，青春期的逆反情绪等问题导致亲子关系紧张加剧，是千万留守儿童父母面临的共性难题。留守儿童，这个数量庞大的特殊群体，他们的成长问题不仅关乎个人，更关乎家庭甚至是国家的未来。
-　　据国家统计局发布数据显示，截至2017年末进城务工的农民数量达到17185万人，相比2016年增长1.5%。大量农村青壮年劳动力向城市转移带来的后遗症日益凸显：乡村教育落后、家庭监护缺失、社会资源不足导致的城乡贫富差异加剧，留守儿童问题本质上是农村社会衰落的一个缩影。
-　　关爱留守儿童，仍需社会各界合力
-　　中国人民大学社会与人口学院副院长段成荣等专家认为，“留守儿童已经占到了我国儿童总数的近五分之一，这么大的一个群体，对国家未来发展有重要影响。社会各方必须关注他们的心理健康，让他们健康成长。”
-　　然而，单方面的能力总归是有限的，要想解决农村留守儿童问题，还需社会各界合力来解决:
-　　产业聚能：创造就近就业机会。中国人民大学农业与农村发展学院温铁军认为，现阶段不应该再强调城市化，而是强调县以下中心镇发展的“城镇化”战略，让大量农民能够在本村、临近城镇等就业半径比较短的地区就业。据《人民政协报》报道，全国政协委员、贵州毕节市副市长冉霞也曾表示，鼓励和支持外出务工农民工返乡创业就业，这才是留守儿童问题的治本之策。
-　　政策扶持：让农民工享有与城镇居民同等权利。2016年2月，国务院发布了《关于加强农村留守儿童关爱保护工作的意见》，首次提出要“从源头上逐步减少儿童留守现象”。一方面政府对农村留守儿童关怀备至，另一方面需要政府扶持力求解决新生代农民工两大心病：住房和孩子教育。释放更多土地让城镇务工人员也能租得起、买得起房，能在城市扎根下来；进一步推进户籍改革，让务工人员的孩子也能享受和城镇居民孩子一样的教育权利。
-　　社会聚力：三方机构与企业助力合作。2015年，中国日报网和中国红十字基金会联合主办发起“鲁冰花”关爱留守儿童公益计划，让更多的人了解、关注留守儿童。2018年，免费午餐基金联合相关爱心集团为农村留守儿童送去免费午餐。今年，腾讯公司推出的DN.A农村支教计划，联动高校、第三方机构和家长行动起来，以科技和工具为第三方机构和家长赋能，让在外打工的家长也能远程监护孩子的上网行为。
-　　理念普及：提升农村家长群体现代化教育意识。据《中国流动人口发展报告2017》显示，留守儿童监护人平均年龄为58.2岁，文化程度在小学及以下者超70%，他们重视孩子的教育问题，却不知道怎么做。农村留守儿童的父母因为在外务工，教育程度普遍较低，因此在农村家长群体间普及教育理念，开展教育理念讲课，上门面对面给他们讲解普及教育的重要性等，这些举措在一定程度上能通过家长让留守儿童获得更好的教育。
-　　随着我国城镇化进程快速发展，劳动力分布不均衡，户籍制度很难在短期内改变，不出意外，留守儿童问题将长期存在。如何破题？就需要社会各界共同下力气解决了。[责编：李超]</t>
   </si>
   <si>
     <t>10年，这个爱心团队涌现898名造血干细胞捐献志愿者</t>
@@ -5838,12 +5800,6 @@
   </si>
   <si>
     <t>2018-06-26 11:43</t>
-  </si>
-  <si>
-    <t>　　时隔五个多月，去年底备受关注的、由深圳市爱佑未来慈善基金会（以下简称“爱佑未来基金会”）和北京零分贝科技有限公司（以下简称“零分贝公司”）共同发起的“同一天生日”网络募捐活动有了最新进展，6月15日，深圳市民政局发布公告，因未在民政部指定的互联网募捐信息平台发布募捐信息，没有对发布的募捐信息进行审核，发布的信息不准确不完整，对活动发起方爱佑未来基金会作出警告的行政处罚，并责令限期改正。
-　　输入自己的生日，能找到一个同月同日生的贫困儿童，并可捐出一元钱奉献爱心。2017年12月23日，由爱佑未来基金会通过零分贝公司开发的“分贝筹”微信公众号开展的网络募捐“同一天生日”在微信朋友圈热传。随后该活动被网友质疑存在受助儿童照片相同、姓名和生日却不同，儿童生日日期实际不存在等情况。有业内相关人士也指出，该网络募捐项目在操作过程中没有在指定的平台公开募捐信息，涉嫌违反慈善法以及相关配套规章。
-　　2017年12月24日晚，深圳市民政局官方微博发布：深圳市民政局已成立调查组，着手调查“同一天生日”网络募捐活动。次日，深圳市民政局约谈了深圳市爱佑未来慈善基金会相关负责人，责令立即停止此次募捐活动。12月26日，深圳市民政局决定对深圳市爱佑未来慈善基金会立案调查。
-　　今天发布的公告显示，深圳市民政局认定，爱佑未来基金会未在民政部指定的互联网募捐信息平台发布募捐信息，没有对发布的募捐信息进行审核，发布的信息不准确不完整。违反了《中华人民共和国慈善法》第二十三条第三款和第七十一条的规定。依据《中华人民共和国慈善法》第九十九条第一款第五项的规定，2018年6月15日，深圳市民政局作出行政处罚决定（深民罚字〔2018〕第029号），对深圳市爱佑未来慈善基金会予以警告，并责令限期改正。公开资料显示，爱佑未来基金会成立于2015年12月22日，登记管理机关为深圳市民政局，2016年12月9日被认定为慈善组织，2017年1月6日获得慈善组织公开募捐资格。（见习记者刘言记者 王亦君）[责编：钟蕾蕾]</t>
   </si>
   <si>
     <t>国际禁毒日：新型毒品危害更大</t>
@@ -6691,29 +6647,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G269"/>
+  <dimension ref="A1:G265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -6727,18 +6683,18 @@
         <v>500000</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(1,500)</f>
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,30)</f>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -6752,18 +6708,18 @@
         <v>500001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" ca="1" si="0">RANDBETWEEN(1,500)</f>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>380</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" ca="1" si="1">RANDBETWEEN(1,30)</f>
-        <v>20</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>6</v>
@@ -6777,18 +6733,18 @@
         <v>500002</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>415</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>269</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
@@ -6802,18 +6758,18 @@
         <v>500003</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>322</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>1</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
@@ -6827,18 +6783,18 @@
         <v>500004</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>233</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
@@ -6852,18 +6808,18 @@
         <v>500005</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>302</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>213</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>17</v>
@@ -6877,18 +6833,18 @@
         <v>500006</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>130</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>20</v>
@@ -6902,18 +6858,18 @@
         <v>500007</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>343</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>44</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>23</v>
@@ -6927,18 +6883,18 @@
         <v>500008</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>235</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>26</v>
@@ -6952,18 +6908,18 @@
         <v>500009</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>382</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>173</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>29</v>
@@ -6977,18 +6933,18 @@
         <v>500010</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>354</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>11</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>32</v>
@@ -7002,18 +6958,18 @@
         <v>500011</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>116</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>138</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>35</v>
@@ -7027,18 +6983,18 @@
         <v>500012</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>480</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>471</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>38</v>
@@ -7052,18 +7008,18 @@
         <v>500013</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>70</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>6</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>41</v>
@@ -7077,18 +7033,18 @@
         <v>500014</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>388</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>435</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>44</v>
@@ -7102,18 +7058,18 @@
         <v>500015</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>433</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>187</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>47</v>
@@ -7127,18 +7083,18 @@
         <v>500016</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="0"/>
-        <v>270</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>290</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>27</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>50</v>
@@ -7152,18 +7108,18 @@
         <v>500017</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="0"/>
-        <v>304</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>172</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>22</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>53</v>
@@ -7177,18 +7133,18 @@
         <v>500018</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="0"/>
-        <v>212</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>269</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>14</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>56</v>
@@ -7202,18 +7158,18 @@
         <v>500019</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D21">
-        <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>249</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>23</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>59</v>
@@ -7227,18 +7183,18 @@
         <v>500020</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>63</v>
       </c>
       <c r="D22">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>130</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>6</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>62</v>
@@ -7252,17 +7208,17 @@
         <v>500021</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D23">
-        <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>145</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">RANDBETWEEN(1,30)</f>
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -7277,24 +7233,24 @@
         <v>500022</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24">
-        <f t="shared" ca="1" si="0"/>
-        <v>370</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>158</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -7302,24 +7258,24 @@
         <v>500023</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D25">
-        <f t="shared" ca="1" si="0"/>
-        <v>267</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>461</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -7327,24 +7283,24 @@
         <v>500024</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26">
-        <f t="shared" ca="1" si="0"/>
-        <v>380</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>302</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>8</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -7352,24 +7308,24 @@
         <v>500025</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D27">
-        <f t="shared" ca="1" si="0"/>
-        <v>177</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>459</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>20</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -7377,24 +7333,24 @@
         <v>500026</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28">
-        <f t="shared" ca="1" si="0"/>
-        <v>306</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>403</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>11</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -7402,24 +7358,24 @@
         <v>500027</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29">
-        <f t="shared" ca="1" si="0"/>
-        <v>397</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>399</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>26</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -7427,24 +7383,24 @@
         <v>500028</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D30">
-        <f t="shared" ca="1" si="0"/>
-        <v>283</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>191</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>16</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -7452,24 +7408,24 @@
         <v>500029</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D31">
-        <f t="shared" ca="1" si="0"/>
-        <v>376</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>58</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -7477,24 +7433,24 @@
         <v>500030</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D32">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>310</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>28</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -7502,24 +7458,24 @@
         <v>500031</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D33">
-        <f t="shared" ca="1" si="0"/>
-        <v>342</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>44</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -7527,24 +7483,24 @@
         <v>500032</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34">
-        <f t="shared" ca="1" si="0"/>
-        <v>270</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>363</v>
       </c>
       <c r="E34">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>30</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -7552,24 +7508,24 @@
         <v>500033</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35">
-        <f t="shared" ca="1" si="0"/>
-        <v>170</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>454</v>
       </c>
       <c r="E35">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -7577,24 +7533,24 @@
         <v>500034</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D36">
-        <f t="shared" ca="1" si="0"/>
-        <v>450</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>87</v>
       </c>
       <c r="E36">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>29</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -7602,24 +7558,24 @@
         <v>500035</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D37">
-        <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>50</v>
       </c>
       <c r="E37">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>24</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -7627,24 +7583,24 @@
         <v>500036</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D38">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>260</v>
       </c>
       <c r="E38">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>15</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -7652,24 +7608,24 @@
         <v>500037</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>295</v>
       </c>
       <c r="E39">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -7677,24 +7633,24 @@
         <v>500038</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40">
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>491</v>
+      </c>
+      <c r="E40">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>25</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D40">
-        <f t="shared" ca="1" si="0"/>
-        <v>221</v>
-      </c>
-      <c r="E40">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -7702,24 +7658,24 @@
         <v>500039</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D41">
-        <f t="shared" ca="1" si="0"/>
-        <v>382</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>383</v>
       </c>
       <c r="E41">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>3</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -7727,24 +7683,24 @@
         <v>500040</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D42">
-        <f t="shared" ca="1" si="0"/>
-        <v>494</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>446</v>
       </c>
       <c r="E42">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>27</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -7752,24 +7708,24 @@
         <v>500041</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D43">
-        <f t="shared" ca="1" si="0"/>
-        <v>231</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>336</v>
       </c>
       <c r="E43">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>20</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -7777,24 +7733,24 @@
         <v>500042</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D44">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>319</v>
       </c>
       <c r="E44">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>10</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -7802,24 +7758,24 @@
         <v>500043</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D45">
-        <f t="shared" ca="1" si="0"/>
-        <v>260</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>96</v>
       </c>
       <c r="E45">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -7827,24 +7783,24 @@
         <v>500044</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D46">
-        <f t="shared" ca="1" si="0"/>
-        <v>366</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>365</v>
       </c>
       <c r="E46">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>13</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -7852,24 +7808,24 @@
         <v>500045</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D47">
-        <f t="shared" ca="1" si="0"/>
-        <v>302</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>146</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>2</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -7877,24 +7833,24 @@
         <v>500046</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D48">
-        <f t="shared" ca="1" si="0"/>
-        <v>453</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>312</v>
       </c>
       <c r="E48">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>4</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -7902,24 +7858,24 @@
         <v>500047</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D49">
-        <f t="shared" ca="1" si="0"/>
-        <v>375</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>148</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>29</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -7927,24 +7883,24 @@
         <v>500048</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D50">
-        <f t="shared" ca="1" si="0"/>
-        <v>395</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>447</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>7</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -7952,24 +7908,24 @@
         <v>500049</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D51">
-        <f t="shared" ca="1" si="0"/>
-        <v>241</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>497</v>
       </c>
       <c r="E51">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>19</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -7977,24 +7933,24 @@
         <v>500050</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52">
-        <f t="shared" ca="1" si="0"/>
-        <v>227</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>314</v>
       </c>
       <c r="E52">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>13</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -8002,24 +7958,24 @@
         <v>500051</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53">
-        <f t="shared" ca="1" si="0"/>
-        <v>456</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>241</v>
       </c>
       <c r="E53">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>25</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -8027,24 +7983,24 @@
         <v>500052</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54">
-        <f t="shared" ca="1" si="0"/>
-        <v>185</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>75</v>
       </c>
       <c r="E54">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>27</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -8052,24 +8008,24 @@
         <v>500053</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55">
-        <f t="shared" ca="1" si="0"/>
-        <v>98</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>187</v>
       </c>
       <c r="E55">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>23</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -8077,24 +8033,24 @@
         <v>500054</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D56">
-        <f t="shared" ca="1" si="0"/>
-        <v>397</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>406</v>
       </c>
       <c r="E56">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>23</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -8102,24 +8058,24 @@
         <v>500055</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D57">
-        <f t="shared" ca="1" si="0"/>
-        <v>104</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>260</v>
       </c>
       <c r="E57">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>2</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -8127,24 +8083,24 @@
         <v>500056</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D58">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>338</v>
       </c>
       <c r="E58">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>5</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -8152,24 +8108,24 @@
         <v>500057</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D59">
-        <f t="shared" ca="1" si="0"/>
-        <v>473</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>366</v>
       </c>
       <c r="E59">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>24</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -8177,24 +8133,24 @@
         <v>500058</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D60">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>122</v>
       </c>
       <c r="E60">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>21</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -8202,24 +8158,24 @@
         <v>500059</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D61">
-        <f t="shared" ca="1" si="0"/>
-        <v>278</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>132</v>
       </c>
       <c r="E61">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>29</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -8227,24 +8183,24 @@
         <v>500060</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62">
-        <f t="shared" ca="1" si="0"/>
-        <v>286</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>338</v>
       </c>
       <c r="E62">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>8</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -8252,24 +8208,24 @@
         <v>500061</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63">
-        <f t="shared" ca="1" si="0"/>
-        <v>285</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>39</v>
       </c>
       <c r="E63">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>20</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -8277,24 +8233,24 @@
         <v>500062</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D64">
-        <f t="shared" ca="1" si="0"/>
-        <v>269</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>260</v>
       </c>
       <c r="E64">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>6</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -8302,24 +8258,24 @@
         <v>500063</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D65">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>384</v>
       </c>
       <c r="E65">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>14</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -8327,24 +8283,24 @@
         <v>500064</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D66">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>214</v>
       </c>
       <c r="E66">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>18</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -8352,24 +8308,24 @@
         <v>500065</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" ca="1" si="2">RANDBETWEEN(1,500)</f>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>171</v>
+      </c>
+      <c r="E67">
+        <f ca="1">RANDBETWEEN(1,30)</f>
         <v>9</v>
       </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E130" ca="1" si="3">RANDBETWEEN(1,30)</f>
-        <v>24</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -8377,24 +8333,24 @@
         <v>500066</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D68">
-        <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>126</v>
       </c>
       <c r="E68">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>14</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -8402,24 +8358,24 @@
         <v>500067</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D69">
-        <f t="shared" ca="1" si="2"/>
-        <v>204</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>183</v>
       </c>
       <c r="E69">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>28</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -8427,24 +8383,24 @@
         <v>500068</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D70">
-        <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>87</v>
       </c>
       <c r="E70">
-        <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>30</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -8452,24 +8408,24 @@
         <v>500069</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71">
-        <f t="shared" ca="1" si="2"/>
-        <v>154</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>126</v>
       </c>
       <c r="E71">
-        <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>10</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -8477,24 +8433,24 @@
         <v>500070</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D72">
-        <f t="shared" ca="1" si="2"/>
-        <v>315</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>63</v>
       </c>
       <c r="E72">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>15</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -8502,24 +8458,24 @@
         <v>500071</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D73">
-        <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>442</v>
       </c>
       <c r="E73">
-        <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>19</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -8527,24 +8483,24 @@
         <v>500072</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D74">
-        <f t="shared" ca="1" si="2"/>
-        <v>373</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>10</v>
       </c>
       <c r="E74">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>5</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -8552,24 +8508,24 @@
         <v>500073</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D75">
-        <f t="shared" ca="1" si="2"/>
-        <v>272</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>166</v>
       </c>
       <c r="E75">
-        <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>30</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -8577,24 +8533,24 @@
         <v>500074</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D76">
-        <f t="shared" ca="1" si="2"/>
-        <v>383</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>374</v>
       </c>
       <c r="E76">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>13</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -8602,24 +8558,24 @@
         <v>500075</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D77">
-        <f t="shared" ca="1" si="2"/>
-        <v>148</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>23</v>
       </c>
       <c r="E77">
-        <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>5</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -8627,24 +8583,24 @@
         <v>500076</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D78">
-        <f t="shared" ca="1" si="2"/>
-        <v>195</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>139</v>
       </c>
       <c r="E78">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>14</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -8652,24 +8608,24 @@
         <v>500077</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D79">
-        <f t="shared" ca="1" si="2"/>
-        <v>410</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>499</v>
       </c>
       <c r="E79">
-        <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>6</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -8677,24 +8633,24 @@
         <v>500078</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D80">
-        <f t="shared" ca="1" si="2"/>
-        <v>367</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>4</v>
       </c>
       <c r="E80">
-        <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>30</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -8702,24 +8658,24 @@
         <v>500079</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D81">
-        <f t="shared" ca="1" si="2"/>
-        <v>173</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>380</v>
       </c>
       <c r="E81">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>13</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -8727,24 +8683,24 @@
         <v>500080</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D82">
-        <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>212</v>
       </c>
       <c r="E82">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>3</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -8752,24 +8708,24 @@
         <v>500081</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D83">
-        <f t="shared" ca="1" si="2"/>
-        <v>480</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>221</v>
       </c>
       <c r="E83">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>13</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -8777,24 +8733,24 @@
         <v>500082</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D84">
-        <f t="shared" ca="1" si="2"/>
-        <v>327</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>259</v>
       </c>
       <c r="E84">
-        <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>30</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -8802,24 +8758,24 @@
         <v>500083</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D85">
-        <f t="shared" ca="1" si="2"/>
-        <v>168</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>247</v>
       </c>
       <c r="E85">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>30</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -8827,24 +8783,24 @@
         <v>500084</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D86">
-        <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>442</v>
       </c>
       <c r="E86">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>16</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -8852,24 +8808,24 @@
         <v>500085</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D87">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>144</v>
+      </c>
+      <c r="E87">
+        <f ca="1">RANDBETWEEN(1,30)</f>
         <v>5</v>
       </c>
-      <c r="E87">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -8877,24 +8833,24 @@
         <v>500086</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D88">
-        <f t="shared" ca="1" si="2"/>
-        <v>297</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>242</v>
       </c>
       <c r="E88">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>8</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -8902,24 +8858,24 @@
         <v>500087</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D89">
-        <f t="shared" ca="1" si="2"/>
-        <v>310</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>53</v>
       </c>
       <c r="E89">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>21</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -8927,24 +8883,24 @@
         <v>500088</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D90">
-        <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>98</v>
       </c>
       <c r="E90">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>7</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -8952,24 +8908,24 @@
         <v>500089</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D91">
-        <f t="shared" ca="1" si="2"/>
-        <v>168</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>154</v>
       </c>
       <c r="E91">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>30</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -8977,24 +8933,24 @@
         <v>500090</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D92">
-        <f t="shared" ca="1" si="2"/>
-        <v>105</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>187</v>
       </c>
       <c r="E92">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>18</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -9002,24 +8958,24 @@
         <v>500091</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D93">
-        <f t="shared" ca="1" si="2"/>
-        <v>217</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>165</v>
       </c>
       <c r="E93">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>2</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -9027,24 +8983,24 @@
         <v>500092</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D94">
-        <f t="shared" ca="1" si="2"/>
-        <v>218</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>443</v>
       </c>
       <c r="E94">
-        <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>27</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -9052,24 +9008,24 @@
         <v>500093</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D95">
-        <f t="shared" ca="1" si="2"/>
-        <v>309</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>225</v>
       </c>
       <c r="E95">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>1</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -9077,24 +9033,24 @@
         <v>500094</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D96">
-        <f t="shared" ca="1" si="2"/>
-        <v>367</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>45</v>
       </c>
       <c r="E96">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>24</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -9102,24 +9058,24 @@
         <v>500095</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D97">
-        <f t="shared" ca="1" si="2"/>
-        <v>222</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>130</v>
       </c>
       <c r="E97">
-        <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>16</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -9127,24 +9083,24 @@
         <v>500096</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D98">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>438</v>
+      </c>
+      <c r="E98">
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>15</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="E98">
-        <f t="shared" ca="1" si="3"/>
-        <v>27</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -9152,24 +9108,24 @@
         <v>500097</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D99">
-        <f t="shared" ca="1" si="2"/>
-        <v>183</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>306</v>
       </c>
       <c r="E99">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>9</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -9177,24 +9133,24 @@
         <v>500098</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D100">
-        <f t="shared" ca="1" si="2"/>
-        <v>439</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>275</v>
       </c>
       <c r="E100">
-        <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>7</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -9202,24 +9158,24 @@
         <v>500099</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D101">
-        <f t="shared" ca="1" si="2"/>
-        <v>419</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>22</v>
       </c>
       <c r="E101">
-        <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>19</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -9227,24 +9183,24 @@
         <v>500100</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D102">
-        <f t="shared" ca="1" si="2"/>
-        <v>456</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>32</v>
       </c>
       <c r="E102">
-        <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>25</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -9252,24 +9208,24 @@
         <v>500101</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D103">
-        <f t="shared" ca="1" si="2"/>
-        <v>241</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>24</v>
       </c>
       <c r="E103">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>3</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -9277,24 +9233,24 @@
         <v>500102</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D104">
-        <f t="shared" ca="1" si="2"/>
-        <v>167</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>373</v>
       </c>
       <c r="E104">
-        <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>26</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -9302,24 +9258,24 @@
         <v>500103</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D105">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>318</v>
       </c>
       <c r="E105">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>30</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -9327,24 +9283,24 @@
         <v>500104</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D106">
-        <f t="shared" ca="1" si="2"/>
-        <v>426</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>278</v>
       </c>
       <c r="E106">
-        <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>10</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -9352,24 +9308,24 @@
         <v>500105</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D107">
-        <f t="shared" ca="1" si="2"/>
-        <v>275</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>476</v>
       </c>
       <c r="E107">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>5</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -9377,24 +9333,24 @@
         <v>500106</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D108">
-        <f t="shared" ca="1" si="2"/>
-        <v>492</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>341</v>
       </c>
       <c r="E108">
-        <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>20</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -9402,24 +9358,24 @@
         <v>500107</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D109">
-        <f t="shared" ca="1" si="2"/>
-        <v>328</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>233</v>
       </c>
       <c r="E109">
-        <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>11</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -9427,24 +9383,24 @@
         <v>500108</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D110">
-        <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>436</v>
       </c>
       <c r="E110">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>25</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -9452,24 +9408,24 @@
         <v>500109</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D111">
-        <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>126</v>
       </c>
       <c r="E111">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>4</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -9477,24 +9433,24 @@
         <v>500110</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D112">
-        <f t="shared" ca="1" si="2"/>
-        <v>122</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>301</v>
       </c>
       <c r="E112">
-        <f t="shared" ca="1" si="3"/>
-        <v>17</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>21</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -9502,24 +9458,24 @@
         <v>500111</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D113">
-        <f t="shared" ca="1" si="2"/>
-        <v>206</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>301</v>
       </c>
       <c r="E113">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -9527,24 +9483,24 @@
         <v>500112</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D114">
-        <f t="shared" ca="1" si="2"/>
-        <v>275</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>362</v>
       </c>
       <c r="E114">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>2</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -9552,24 +9508,24 @@
         <v>500113</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D115">
-        <f t="shared" ca="1" si="2"/>
-        <v>429</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>197</v>
       </c>
       <c r="E115">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>27</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -9577,24 +9533,24 @@
         <v>500114</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D116">
-        <f t="shared" ca="1" si="2"/>
-        <v>253</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>458</v>
       </c>
       <c r="E116">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">RANDBETWEEN(1,30)</f>
         <v>7</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -9602,24 +9558,24 @@
         <v>500115</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D117">
-        <f t="shared" ca="1" si="2"/>
-        <v>352</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>69</v>
       </c>
       <c r="E117">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>1</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -9627,24 +9583,24 @@
         <v>500116</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D118">
-        <f t="shared" ca="1" si="2"/>
-        <v>397</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>402</v>
       </c>
       <c r="E118">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>14</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -9652,24 +9608,24 @@
         <v>500117</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D119">
-        <f t="shared" ca="1" si="2"/>
-        <v>184</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>40</v>
       </c>
       <c r="E119">
-        <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>19</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -9677,24 +9633,24 @@
         <v>500118</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D120">
-        <f t="shared" ca="1" si="2"/>
-        <v>352</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>457</v>
       </c>
       <c r="E120">
-        <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>5</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -9702,24 +9658,24 @@
         <v>500119</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D121">
-        <f t="shared" ca="1" si="2"/>
-        <v>222</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>257</v>
       </c>
       <c r="E121">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>2</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -9727,24 +9683,24 @@
         <v>500120</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D122">
-        <f t="shared" ca="1" si="2"/>
-        <v>161</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>499</v>
       </c>
       <c r="E122">
-        <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>10</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -9752,24 +9708,24 @@
         <v>500121</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D123">
-        <f t="shared" ca="1" si="2"/>
-        <v>155</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>17</v>
       </c>
       <c r="E123">
-        <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>3</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -9777,24 +9733,24 @@
         <v>500122</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D124">
-        <f t="shared" ca="1" si="2"/>
-        <v>378</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>88</v>
       </c>
       <c r="E124">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>13</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -9802,24 +9758,24 @@
         <v>500123</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D125">
-        <f t="shared" ca="1" si="2"/>
-        <v>461</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>373</v>
       </c>
       <c r="E125">
-        <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>16</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -9827,24 +9783,24 @@
         <v>500124</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D126">
-        <f t="shared" ca="1" si="2"/>
-        <v>212</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>154</v>
       </c>
       <c r="E126">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>19</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -9852,24 +9808,24 @@
         <v>500125</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D127">
-        <f t="shared" ca="1" si="2"/>
-        <v>298</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>13</v>
       </c>
       <c r="E127">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>13</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -9877,24 +9833,24 @@
         <v>500126</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D128">
-        <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>426</v>
       </c>
       <c r="E128">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>20</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -9902,24 +9858,24 @@
         <v>500127</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="D129">
-        <f t="shared" ca="1" si="2"/>
-        <v>500</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>222</v>
       </c>
       <c r="E129">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>6</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -9927,24 +9883,24 @@
         <v>500128</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D130">
-        <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>67</v>
       </c>
       <c r="E130">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">RANDBETWEEN(1,30)</f>
         <v>29</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -9952,24 +9908,24 @@
         <v>500129</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" ca="1" si="4">RANDBETWEEN(1,500)</f>
-        <v>286</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>267</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" ca="1" si="5">RANDBETWEEN(1,30)</f>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>6</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -9977,24 +9933,24 @@
         <v>500130</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D132">
-        <f t="shared" ca="1" si="4"/>
-        <v>312</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>46</v>
       </c>
       <c r="E132">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>2</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -10002,24 +9958,24 @@
         <v>500131</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D133">
-        <f t="shared" ca="1" si="4"/>
-        <v>144</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>111</v>
       </c>
       <c r="E133">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>22</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -10027,24 +9983,24 @@
         <v>500132</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D134">
-        <f t="shared" ca="1" si="4"/>
-        <v>445</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>304</v>
       </c>
       <c r="E134">
-        <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>13</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -10052,24 +10008,24 @@
         <v>500133</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="D135">
-        <f t="shared" ca="1" si="4"/>
-        <v>185</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>15</v>
       </c>
       <c r="E135">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>7</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -10077,24 +10033,24 @@
         <v>500134</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D136">
-        <f t="shared" ca="1" si="4"/>
-        <v>145</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>339</v>
       </c>
       <c r="E136">
-        <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>12</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -10102,24 +10058,24 @@
         <v>500135</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="D137">
-        <f t="shared" ca="1" si="4"/>
-        <v>230</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>350</v>
       </c>
       <c r="E137">
-        <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>2</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -10127,24 +10083,24 @@
         <v>500136</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D138">
-        <f t="shared" ca="1" si="4"/>
-        <v>96</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>305</v>
       </c>
       <c r="E138">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>29</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -10152,24 +10108,24 @@
         <v>500137</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D139">
-        <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>171</v>
       </c>
       <c r="E139">
-        <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>6</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -10177,24 +10133,24 @@
         <v>500138</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D140">
-        <f t="shared" ca="1" si="4"/>
-        <v>325</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>143</v>
       </c>
       <c r="E140">
-        <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>27</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -10202,24 +10158,24 @@
         <v>500139</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D141">
-        <f t="shared" ca="1" si="4"/>
-        <v>465</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>294</v>
       </c>
       <c r="E141">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>24</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -10227,24 +10183,24 @@
         <v>500140</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D142">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>164</v>
       </c>
       <c r="E142">
-        <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>6</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -10252,24 +10208,24 @@
         <v>500141</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="D143">
-        <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>135</v>
       </c>
       <c r="E143">
-        <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>4</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -10277,24 +10233,24 @@
         <v>500142</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D144">
-        <f t="shared" ca="1" si="4"/>
-        <v>223</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>439</v>
       </c>
       <c r="E144">
-        <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>9</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -10302,24 +10258,24 @@
         <v>500143</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="D145">
-        <f t="shared" ca="1" si="4"/>
-        <v>62</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>447</v>
       </c>
       <c r="E145">
-        <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>8</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -10327,24 +10283,24 @@
         <v>500144</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D146">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>161</v>
       </c>
       <c r="E146">
-        <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>9</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -10352,24 +10308,24 @@
         <v>500145</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="D147">
-        <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>27</v>
       </c>
       <c r="E147">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>8</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -10377,24 +10333,24 @@
         <v>500146</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D148">
-        <f t="shared" ca="1" si="4"/>
-        <v>491</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>447</v>
       </c>
       <c r="E148">
-        <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>24</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -10402,24 +10358,24 @@
         <v>500147</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D149">
-        <f t="shared" ca="1" si="4"/>
-        <v>489</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>343</v>
       </c>
       <c r="E149">
-        <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>7</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -10427,24 +10383,24 @@
         <v>500148</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D150">
-        <f t="shared" ca="1" si="4"/>
-        <v>195</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>234</v>
       </c>
       <c r="E150">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>10</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -10452,24 +10408,24 @@
         <v>500149</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D151">
-        <f t="shared" ca="1" si="4"/>
-        <v>406</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>235</v>
       </c>
       <c r="E151">
-        <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>5</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -10477,24 +10433,24 @@
         <v>500150</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D152">
-        <f t="shared" ca="1" si="4"/>
-        <v>235</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>481</v>
       </c>
       <c r="E152">
-        <f t="shared" ca="1" si="5"/>
-        <v>26</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>21</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -10502,24 +10458,24 @@
         <v>500151</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D153">
-        <f t="shared" ca="1" si="4"/>
-        <v>461</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>180</v>
       </c>
       <c r="E153">
-        <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>15</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -10527,24 +10483,24 @@
         <v>500152</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D154">
-        <f t="shared" ca="1" si="4"/>
-        <v>438</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>464</v>
       </c>
       <c r="E154">
-        <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>26</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -10552,24 +10508,24 @@
         <v>500153</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="D155">
-        <f t="shared" ca="1" si="4"/>
-        <v>163</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>83</v>
       </c>
       <c r="E155">
-        <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>6</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -10577,24 +10533,24 @@
         <v>500154</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D156">
-        <f t="shared" ca="1" si="4"/>
-        <v>313</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>438</v>
       </c>
       <c r="E156">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>3</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -10602,24 +10558,24 @@
         <v>500155</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="D157">
-        <f t="shared" ca="1" si="4"/>
-        <v>331</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>303</v>
       </c>
       <c r="E157">
-        <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>7</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -10627,24 +10583,24 @@
         <v>500156</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D158">
-        <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>176</v>
       </c>
       <c r="E158">
-        <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>8</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -10652,24 +10608,24 @@
         <v>500157</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D159">
-        <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>244</v>
       </c>
       <c r="E159">
-        <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>7</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -10677,24 +10633,24 @@
         <v>500158</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D160">
-        <f t="shared" ca="1" si="4"/>
-        <v>140</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>183</v>
       </c>
       <c r="E160">
-        <f t="shared" ca="1" si="5"/>
-        <v>11</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>27</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -10702,24 +10658,24 @@
         <v>500159</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D161">
-        <f t="shared" ca="1" si="4"/>
-        <v>150</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>183</v>
       </c>
       <c r="E161">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>14</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -10727,24 +10683,24 @@
         <v>500160</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D162">
-        <f t="shared" ca="1" si="4"/>
-        <v>235</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>165</v>
       </c>
       <c r="E162">
-        <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>18</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -10752,24 +10708,24 @@
         <v>500161</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D163">
-        <f t="shared" ca="1" si="4"/>
-        <v>301</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>250</v>
       </c>
       <c r="E163">
-        <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>24</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -10777,24 +10733,24 @@
         <v>500162</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D164">
-        <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>177</v>
       </c>
       <c r="E164">
-        <f t="shared" ca="1" si="5"/>
-        <v>22</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>13</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -10802,24 +10758,24 @@
         <v>500163</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D165">
-        <f t="shared" ca="1" si="4"/>
-        <v>64</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>216</v>
       </c>
       <c r="E165">
-        <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>7</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -10827,24 +10783,24 @@
         <v>500164</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D166">
-        <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>477</v>
       </c>
       <c r="E166">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>6</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -10852,24 +10808,24 @@
         <v>500165</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D167">
-        <f t="shared" ca="1" si="4"/>
-        <v>133</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>184</v>
       </c>
       <c r="E167">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>9</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -10877,24 +10833,24 @@
         <v>500166</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
       <c r="D168">
-        <f t="shared" ca="1" si="4"/>
-        <v>288</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>421</v>
       </c>
       <c r="E168">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>14</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -10902,24 +10858,24 @@
         <v>500167</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="D169">
-        <f t="shared" ca="1" si="4"/>
-        <v>115</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>484</v>
       </c>
       <c r="E169">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>4</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -10927,24 +10883,24 @@
         <v>500168</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D170">
-        <f t="shared" ca="1" si="4"/>
-        <v>184</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>375</v>
       </c>
       <c r="E170">
-        <f t="shared" ca="1" si="5"/>
-        <v>12</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>3</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -10952,24 +10908,24 @@
         <v>500169</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="D171">
-        <f t="shared" ca="1" si="4"/>
-        <v>275</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>299</v>
       </c>
       <c r="E171">
-        <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>8</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -10977,24 +10933,24 @@
         <v>500170</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="D172">
-        <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>386</v>
       </c>
       <c r="E172">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>19</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -11002,24 +10958,24 @@
         <v>500171</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D173">
-        <f t="shared" ca="1" si="4"/>
-        <v>374</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>49</v>
       </c>
       <c r="E173">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>12</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -11027,24 +10983,24 @@
         <v>500172</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="D174">
-        <f t="shared" ca="1" si="4"/>
-        <v>399</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>110</v>
       </c>
       <c r="E174">
-        <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>23</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>474</v>
+        <v>516</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -11052,24 +11008,24 @@
         <v>500173</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="D175">
-        <f t="shared" ca="1" si="4"/>
-        <v>99</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>147</v>
       </c>
       <c r="E175">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>18</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -11077,24 +11033,24 @@
         <v>500174</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="D176">
-        <f t="shared" ca="1" si="4"/>
-        <v>246</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>431</v>
       </c>
       <c r="E176">
-        <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>25</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -11102,24 +11058,24 @@
         <v>500175</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D177">
-        <f t="shared" ca="1" si="4"/>
-        <v>453</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>365</v>
       </c>
       <c r="E177">
-        <f t="shared" ca="1" si="5"/>
-        <v>28</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>9</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -11127,24 +11083,24 @@
         <v>500176</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D178">
-        <f t="shared" ca="1" si="4"/>
-        <v>312</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>458</v>
       </c>
       <c r="E178">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>28</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -11152,24 +11108,24 @@
         <v>500177</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="D179">
-        <f t="shared" ca="1" si="4"/>
-        <v>396</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>213</v>
       </c>
       <c r="E179">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>28</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -11177,24 +11133,24 @@
         <v>500178</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D180">
-        <f t="shared" ca="1" si="4"/>
-        <v>367</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>326</v>
       </c>
       <c r="E180">
-        <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>16</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -11202,24 +11158,24 @@
         <v>500179</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="D181">
-        <f t="shared" ca="1" si="4"/>
-        <v>497</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>462</v>
       </c>
       <c r="E181">
-        <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>9</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -11227,24 +11183,24 @@
         <v>500180</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="D182">
-        <f t="shared" ca="1" si="4"/>
-        <v>313</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>256</v>
       </c>
       <c r="E182">
-        <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>6</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -11252,24 +11208,24 @@
         <v>500181</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="D183">
-        <f t="shared" ca="1" si="4"/>
-        <v>330</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>220</v>
       </c>
       <c r="E183">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>11</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -11277,24 +11233,24 @@
         <v>500182</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D184">
-        <f t="shared" ca="1" si="4"/>
-        <v>311</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>459</v>
       </c>
       <c r="E184">
-        <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>24</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -11302,24 +11258,24 @@
         <v>500183</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="D185">
-        <f t="shared" ca="1" si="4"/>
-        <v>131</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>239</v>
       </c>
       <c r="E185">
-        <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>20</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -11327,24 +11283,24 @@
         <v>500184</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D186">
-        <f t="shared" ca="1" si="4"/>
-        <v>192</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>353</v>
       </c>
       <c r="E186">
-        <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>14</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -11352,24 +11308,24 @@
         <v>500185</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="D187">
-        <f t="shared" ca="1" si="4"/>
-        <v>303</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>370</v>
       </c>
       <c r="E187">
-        <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>10</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -11377,24 +11333,24 @@
         <v>500186</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D188">
-        <f t="shared" ca="1" si="4"/>
-        <v>334</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>421</v>
       </c>
       <c r="E188">
-        <f t="shared" ca="1" si="5"/>
-        <v>20</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>23</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -11402,24 +11358,24 @@
         <v>500187</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="D189">
-        <f t="shared" ca="1" si="4"/>
-        <v>208</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>379</v>
       </c>
       <c r="E189">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>25</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -11427,24 +11383,24 @@
         <v>500188</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="D190">
-        <f t="shared" ca="1" si="4"/>
-        <v>344</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>338</v>
       </c>
       <c r="E190">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>2</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -11452,24 +11408,24 @@
         <v>500189</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="D191">
-        <f t="shared" ca="1" si="4"/>
-        <v>131</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>393</v>
       </c>
       <c r="E191">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>7</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -11477,24 +11433,24 @@
         <v>500190</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="D192">
-        <f t="shared" ca="1" si="4"/>
-        <v>331</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>172</v>
       </c>
       <c r="E192">
-        <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>13</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -11502,24 +11458,24 @@
         <v>500191</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="D193">
-        <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>401</v>
       </c>
       <c r="E193">
-        <f t="shared" ca="1" si="5"/>
-        <v>18</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>22</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -11527,24 +11483,24 @@
         <v>500192</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="D194">
-        <f t="shared" ca="1" si="4"/>
-        <v>160</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>126</v>
       </c>
       <c r="E194">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>26</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -11552,24 +11508,24 @@
         <v>500193</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" ca="1" si="6">RANDBETWEEN(1,500)</f>
-        <v>368</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>172</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E258" ca="1" si="7">RANDBETWEEN(1,30)</f>
-        <v>17</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>10</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -11577,24 +11533,24 @@
         <v>500194</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D196">
-        <f t="shared" ca="1" si="6"/>
-        <v>464</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>331</v>
       </c>
       <c r="E196">
-        <f t="shared" ca="1" si="7"/>
-        <v>16</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>14</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -11602,24 +11558,24 @@
         <v>500195</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="D197">
-        <f t="shared" ca="1" si="6"/>
-        <v>384</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>267</v>
       </c>
       <c r="E197">
-        <f t="shared" ca="1" si="7"/>
-        <v>29</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>19</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -11627,24 +11583,24 @@
         <v>500196</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="D198">
-        <f t="shared" ca="1" si="6"/>
-        <v>280</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>234</v>
       </c>
       <c r="E198">
-        <f t="shared" ca="1" si="7"/>
-        <v>15</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>29</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -11652,24 +11608,24 @@
         <v>500197</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="D199">
-        <f t="shared" ca="1" si="6"/>
-        <v>338</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>391</v>
       </c>
       <c r="E199">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>11</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -11677,24 +11633,24 @@
         <v>500198</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="D200">
-        <f t="shared" ca="1" si="6"/>
-        <v>459</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>144</v>
       </c>
       <c r="E200">
-        <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>7</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -11702,24 +11658,24 @@
         <v>500199</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D201">
-        <f t="shared" ca="1" si="6"/>
-        <v>267</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>215</v>
       </c>
       <c r="E201">
-        <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>16</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
@@ -11727,24 +11683,24 @@
         <v>500200</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="D202">
-        <f t="shared" ca="1" si="6"/>
-        <v>295</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>54</v>
       </c>
       <c r="E202">
-        <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>9</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
@@ -11752,24 +11708,24 @@
         <v>500201</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="D203">
-        <f t="shared" ca="1" si="6"/>
-        <v>146</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>366</v>
       </c>
       <c r="E203">
-        <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>19</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
@@ -11777,24 +11733,24 @@
         <v>500202</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="D204">
-        <f t="shared" ca="1" si="6"/>
-        <v>353</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>489</v>
       </c>
       <c r="E204">
-        <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>19</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
@@ -11802,24 +11758,24 @@
         <v>500203</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="D205">
-        <f t="shared" ca="1" si="6"/>
-        <v>254</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>290</v>
       </c>
       <c r="E205">
-        <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>21</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
@@ -11827,24 +11783,24 @@
         <v>500204</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="D206">
-        <f t="shared" ca="1" si="6"/>
-        <v>275</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>241</v>
       </c>
       <c r="E206">
-        <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>19</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
@@ -11852,24 +11808,24 @@
         <v>500205</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="D207">
-        <f t="shared" ca="1" si="6"/>
-        <v>329</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>121</v>
       </c>
       <c r="E207">
-        <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>20</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
@@ -11877,24 +11833,24 @@
         <v>500206</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="D208">
-        <f t="shared" ca="1" si="6"/>
-        <v>371</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>470</v>
       </c>
       <c r="E208">
-        <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>29</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
@@ -11902,24 +11858,24 @@
         <v>500207</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="D209">
-        <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>93</v>
       </c>
       <c r="E209">
-        <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>3</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -11927,24 +11883,24 @@
         <v>500208</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="D210">
-        <f t="shared" ca="1" si="6"/>
-        <v>392</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>183</v>
       </c>
       <c r="E210">
-        <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>11</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
@@ -11952,24 +11908,24 @@
         <v>500209</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="D211">
-        <f t="shared" ca="1" si="6"/>
-        <v>93</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>464</v>
       </c>
       <c r="E211">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>26</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -11977,24 +11933,24 @@
         <v>500210</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="D212">
-        <f t="shared" ca="1" si="6"/>
-        <v>101</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>360</v>
       </c>
       <c r="E212">
-        <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>1</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
@@ -12002,24 +11958,24 @@
         <v>500211</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="D213">
-        <f t="shared" ca="1" si="6"/>
-        <v>440</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>306</v>
       </c>
       <c r="E213">
-        <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>1</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -12027,24 +11983,24 @@
         <v>500212</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="D214">
-        <f t="shared" ca="1" si="6"/>
-        <v>315</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>192</v>
       </c>
       <c r="E214">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>15</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -12052,24 +12008,24 @@
         <v>500213</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="D215">
-        <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>218</v>
       </c>
       <c r="E215">
-        <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>20</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
@@ -12077,24 +12033,24 @@
         <v>500214</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="D216">
-        <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>258</v>
       </c>
       <c r="E216">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>8</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -12102,24 +12058,24 @@
         <v>500215</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="D217">
-        <f t="shared" ca="1" si="6"/>
-        <v>26</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>482</v>
       </c>
       <c r="E217">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>30</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -12127,24 +12083,24 @@
         <v>500216</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="D218">
-        <f t="shared" ca="1" si="6"/>
-        <v>480</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>71</v>
       </c>
       <c r="E218">
-        <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>9</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>643</v>
+        <v>648</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -12152,24 +12108,24 @@
         <v>500217</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="D219">
-        <f t="shared" ca="1" si="6"/>
-        <v>363</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>295</v>
       </c>
       <c r="E219">
-        <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>11</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -12177,24 +12133,24 @@
         <v>500218</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="D220">
-        <f t="shared" ca="1" si="6"/>
-        <v>158</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>226</v>
       </c>
       <c r="E220">
-        <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>6</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
@@ -12202,24 +12158,24 @@
         <v>500219</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D221">
-        <f t="shared" ca="1" si="6"/>
-        <v>271</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>438</v>
       </c>
       <c r="E221">
-        <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>14</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -12227,24 +12183,24 @@
         <v>500220</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D222">
-        <f t="shared" ca="1" si="6"/>
-        <v>301</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>85</v>
       </c>
       <c r="E222">
-        <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>19</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
@@ -12252,24 +12208,24 @@
         <v>500221</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="D223">
-        <f t="shared" ca="1" si="6"/>
-        <v>447</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>211</v>
       </c>
       <c r="E223">
-        <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>30</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
@@ -12277,24 +12233,24 @@
         <v>500222</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="D224">
-        <f t="shared" ca="1" si="6"/>
-        <v>223</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>297</v>
       </c>
       <c r="E224">
-        <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>1</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
@@ -12302,24 +12258,24 @@
         <v>500223</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="D225">
-        <f t="shared" ca="1" si="6"/>
-        <v>276</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>155</v>
       </c>
       <c r="E225">
-        <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>16</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -12327,24 +12283,24 @@
         <v>500224</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="D226">
-        <f t="shared" ca="1" si="6"/>
-        <v>181</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>83</v>
       </c>
       <c r="E226">
-        <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>24</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -12352,24 +12308,24 @@
         <v>500225</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="D227">
-        <f t="shared" ca="1" si="6"/>
-        <v>456</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>88</v>
       </c>
       <c r="E227">
-        <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>21</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -12377,24 +12333,24 @@
         <v>500226</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="D228">
-        <f t="shared" ca="1" si="6"/>
-        <v>449</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>73</v>
       </c>
       <c r="E228">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">RANDBETWEEN(1,30)</f>
         <v>29</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
@@ -12402,24 +12358,24 @@
         <v>500227</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="D229">
-        <f t="shared" ca="1" si="6"/>
-        <v>208</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>83</v>
       </c>
       <c r="E229">
-        <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>7</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
@@ -12427,24 +12383,24 @@
         <v>500228</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="D230">
-        <f t="shared" ca="1" si="6"/>
-        <v>429</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>268</v>
       </c>
       <c r="E230">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>4</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
@@ -12452,24 +12408,24 @@
         <v>500229</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="D231">
-        <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>102</v>
       </c>
       <c r="E231">
-        <f t="shared" ca="1" si="7"/>
-        <v>11</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>29</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
@@ -12477,24 +12433,24 @@
         <v>500230</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="D232">
-        <f t="shared" ca="1" si="6"/>
-        <v>97</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>454</v>
       </c>
       <c r="E232">
-        <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>18</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -12502,24 +12458,24 @@
         <v>500231</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="D233">
-        <f t="shared" ca="1" si="6"/>
-        <v>209</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>41</v>
       </c>
       <c r="E233">
-        <f t="shared" ca="1" si="7"/>
-        <v>13</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>14</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
@@ -12527,24 +12483,24 @@
         <v>500232</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="D234">
-        <f t="shared" ca="1" si="6"/>
-        <v>317</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>328</v>
       </c>
       <c r="E234">
-        <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>1</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -12552,24 +12508,24 @@
         <v>500233</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="D235">
-        <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>110</v>
       </c>
       <c r="E235">
-        <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>17</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
@@ -12577,24 +12533,24 @@
         <v>500234</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="D236">
-        <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>460</v>
       </c>
       <c r="E236">
-        <f t="shared" ca="1" si="7"/>
-        <v>29</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>7</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -12602,24 +12558,24 @@
         <v>500235</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="D237">
-        <f t="shared" ca="1" si="6"/>
-        <v>478</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>67</v>
       </c>
       <c r="E237">
-        <f t="shared" ca="1" si="7"/>
-        <v>16</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>21</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
@@ -12627,24 +12583,24 @@
         <v>500236</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="D238">
-        <f t="shared" ca="1" si="6"/>
-        <v>473</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>118</v>
       </c>
       <c r="E238">
-        <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>19</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
@@ -12652,24 +12608,24 @@
         <v>500237</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="D239">
-        <f t="shared" ca="1" si="6"/>
-        <v>287</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>375</v>
       </c>
       <c r="E239">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>1</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
@@ -12677,24 +12633,24 @@
         <v>500238</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="D240">
-        <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>299</v>
       </c>
       <c r="E240">
-        <f t="shared" ca="1" si="7"/>
-        <v>15</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>1</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
@@ -12702,24 +12658,24 @@
         <v>500239</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="D241">
-        <f t="shared" ca="1" si="6"/>
-        <v>442</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>324</v>
       </c>
       <c r="E241">
-        <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>24</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
@@ -12727,24 +12683,24 @@
         <v>500240</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="D242">
-        <f t="shared" ca="1" si="6"/>
-        <v>371</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>51</v>
       </c>
       <c r="E242">
-        <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>14</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
@@ -12752,24 +12708,24 @@
         <v>500241</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="D243">
-        <f t="shared" ca="1" si="6"/>
-        <v>89</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>195</v>
       </c>
       <c r="E243">
-        <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>12</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -12777,24 +12733,24 @@
         <v>500242</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="D244">
-        <f t="shared" ca="1" si="6"/>
-        <v>451</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>321</v>
       </c>
       <c r="E244">
-        <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>18</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -12802,24 +12758,24 @@
         <v>500243</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="D245">
-        <f t="shared" ca="1" si="6"/>
-        <v>122</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>329</v>
       </c>
       <c r="E245">
-        <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>25</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -12827,24 +12783,24 @@
         <v>500244</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="D246">
-        <f t="shared" ca="1" si="6"/>
-        <v>95</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>310</v>
       </c>
       <c r="E246">
-        <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>16</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -12852,24 +12808,24 @@
         <v>500245</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="D247">
-        <f t="shared" ca="1" si="6"/>
-        <v>330</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>235</v>
       </c>
       <c r="E247">
-        <f t="shared" ca="1" si="7"/>
-        <v>29</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>17</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>729</v>
+        <v>736</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -12877,24 +12833,24 @@
         <v>500246</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="D248">
-        <f t="shared" ca="1" si="6"/>
-        <v>39</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>76</v>
       </c>
       <c r="E248">
-        <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>26</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
@@ -12902,24 +12858,24 @@
         <v>500247</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="D249">
-        <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>255</v>
       </c>
       <c r="E249">
-        <f t="shared" ca="1" si="7"/>
-        <v>16</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>20</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -12927,24 +12883,24 @@
         <v>500248</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="D250">
-        <f t="shared" ca="1" si="6"/>
-        <v>294</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>17</v>
       </c>
       <c r="E250">
-        <f t="shared" ca="1" si="7"/>
-        <v>12</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>18</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -12952,24 +12908,24 @@
         <v>500249</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
       <c r="D251">
-        <f t="shared" ca="1" si="6"/>
-        <v>102</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>147</v>
       </c>
       <c r="E251">
-        <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>17</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -12977,24 +12933,24 @@
         <v>500250</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="D252">
-        <f t="shared" ca="1" si="6"/>
-        <v>86</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>434</v>
       </c>
       <c r="E252">
-        <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>28</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -13002,24 +12958,24 @@
         <v>500251</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="D253">
-        <f t="shared" ca="1" si="6"/>
-        <v>482</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>375</v>
       </c>
       <c r="E253">
-        <f t="shared" ca="1" si="7"/>
-        <v>23</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>13</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -13027,24 +12983,24 @@
         <v>500252</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="D254">
-        <f t="shared" ca="1" si="6"/>
-        <v>270</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>139</v>
       </c>
       <c r="E254">
-        <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>22</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -13052,24 +13008,24 @@
         <v>500253</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="D255">
-        <f t="shared" ca="1" si="6"/>
-        <v>320</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>315</v>
       </c>
       <c r="E255">
-        <f t="shared" ca="1" si="7"/>
-        <v>28</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>22</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -13077,24 +13033,24 @@
         <v>500254</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="D256">
-        <f t="shared" ca="1" si="6"/>
-        <v>109</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>208</v>
       </c>
       <c r="E256">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>2</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>738</v>
+        <v>761</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -13102,24 +13058,24 @@
         <v>500255</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="D257">
-        <f t="shared" ca="1" si="6"/>
-        <v>180</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>385</v>
       </c>
       <c r="E257">
-        <f t="shared" ca="1" si="7"/>
+        <f ca="1">RANDBETWEEN(1,30)</f>
         <v>27</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -13127,24 +13083,24 @@
         <v>500256</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="D258">
-        <f t="shared" ca="1" si="6"/>
-        <v>164</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>454</v>
       </c>
       <c r="E258">
-        <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>16</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>762</v>
+        <v>769</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -13152,24 +13108,24 @@
         <v>500257</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>764</v>
+        <v>771</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D269" ca="1" si="8">RANDBETWEEN(1,500)</f>
-        <v>475</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>334</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E269" ca="1" si="9">RANDBETWEEN(1,30)</f>
-        <v>21</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>23</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>763</v>
+        <v>770</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>765</v>
+        <v>772</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
@@ -13177,24 +13133,24 @@
         <v>500258</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="D260">
-        <f t="shared" ca="1" si="8"/>
-        <v>415</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>289</v>
       </c>
       <c r="E260">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">RANDBETWEEN(1,30)</f>
         <v>17</v>
       </c>
       <c r="F260" s="2" t="s">
-        <v>766</v>
+        <v>773</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>768</v>
+        <v>775</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -13202,24 +13158,24 @@
         <v>500259</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="D261">
-        <f t="shared" ca="1" si="8"/>
-        <v>397</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>165</v>
       </c>
       <c r="E261">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>2</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>769</v>
+        <v>776</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>771</v>
+        <v>778</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -13227,24 +13183,24 @@
         <v>500260</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="D262">
-        <f t="shared" ca="1" si="8"/>
-        <v>411</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>198</v>
       </c>
       <c r="E262">
-        <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>30</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -13252,24 +13208,24 @@
         <v>500261</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="D263">
-        <f t="shared" ca="1" si="8"/>
-        <v>312</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>92</v>
       </c>
       <c r="E263">
-        <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>8</v>
       </c>
       <c r="F263" s="2" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -13277,24 +13233,24 @@
         <v>500262</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="D264">
-        <f t="shared" ca="1" si="8"/>
-        <v>97</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>27</v>
       </c>
       <c r="E264">
-        <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>18</v>
       </c>
       <c r="F264" s="2" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -13302,127 +13258,30 @@
         <v>500263</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="D265">
-        <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <f ca="1">RANDBETWEEN(1,500)</f>
+        <v>187</v>
       </c>
       <c r="E265">
-        <f t="shared" ca="1" si="9"/>
-        <v>20</v>
+        <f ca="1">RANDBETWEEN(1,30)</f>
+        <v>10</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="4">
-        <v>500264</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="D266">
-        <f t="shared" ca="1" si="8"/>
-        <v>221</v>
-      </c>
-      <c r="E266">
-        <f t="shared" ca="1" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="F266" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="G266" s="2" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="4">
-        <v>500265</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="D267">
-        <f t="shared" ca="1" si="8"/>
-        <v>446</v>
-      </c>
-      <c r="E267">
-        <f t="shared" ca="1" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="F267" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="G267" s="2" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="4">
-        <v>500266</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="D268">
-        <f t="shared" ca="1" si="8"/>
-        <v>52</v>
-      </c>
-      <c r="E268">
-        <f t="shared" ca="1" si="9"/>
-        <v>24</v>
-      </c>
-      <c r="F268" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="G268" s="2" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="4">
-        <v>500267</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>798</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="D269">
-        <f t="shared" ca="1" si="8"/>
-        <v>412</v>
-      </c>
-      <c r="E269">
-        <f t="shared" ca="1" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="F269" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="G269" s="2" t="s">
-        <v>795</v>
-      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G265">
+    <sortCondition ref="A110"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
